--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2668.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2668.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.159880365078537</v>
+        <v>1.370077013969421</v>
       </c>
       <c r="B1">
-        <v>2.422260814417443</v>
+        <v>1.384758234024048</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.488422155380249</v>
       </c>
       <c r="D1">
-        <v>2.327432830181492</v>
+        <v>2.132534027099609</v>
       </c>
       <c r="E1">
-        <v>1.210334641814681</v>
+        <v>4.273551464080811</v>
       </c>
     </row>
   </sheetData>
